--- a/biology/Microbiologie/Orchitophryidae/Orchitophryidae.xlsx
+++ b/biology/Microbiologie/Orchitophryidae/Orchitophryidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Orchitophryidae sont une famille de Ciliés de la classe des Oligohymenophorea et de l'ordre des Philasterida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Orchitophrya, composé du préfixe orchit- (du grec ancien ὄρχις / órkhis, « testicule »), et du suffixe -ophrya, dérivé du grec ancien οφρύς / ophrýs, « sourcil ⇒ cil ⇒ cilié », littéralement « ciliés des  testicules », en référence au fait que, selon V. Willem qui la découvrit en 1906, « cet infusoire se conjugue (se reproduit) dans le testicule de son hôte »[1]. Cépède note même que « Par son abondance dans les glandes génitales mâles des Asteracanthion rubens (Asterias rubens, « étoile de mer commune »), (l'espèce) Orchitophrya stellarum Cépède entraîne la dégénérescence d'un certain nombre de cellules sexuelles. Ce parasite gonotome[note 1] cause la castration partielle et directe de son hôte »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Orchitophrya, composé du préfixe orchit- (du grec ancien ὄρχις / órkhis, « testicule »), et du suffixe -ophrya, dérivé du grec ancien οφρύς / ophrýs, « sourcil ⇒ cil ⇒ cilié », littéralement « ciliés des  testicules », en référence au fait que, selon V. Willem qui la découvrit en 1906, « cet infusoire se conjugue (se reproduit) dans le testicule de son hôte ». Cépède note même que « Par son abondance dans les glandes génitales mâles des Asteracanthion rubens (Asterias rubens, « étoile de mer commune »), (l'espèce) Orchitophrya stellarum Cépède entraîne la dégénérescence d'un certain nombre de cellules sexuelles. Ce parasite gonotome[note 1] cause la castration partielle et directe de son hôte ».
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Orchitophryidae ont une taille, petite (&lt; 80 µm) à moyenne (80 à 200 µm). Leur forme est ovoïde. Ils vivent en natation libre. Leur ciliation somatique est holotriche (c. à d. uniforme). Un cil caudal est souvent présent. Leur région buccale est située dans la moitié antérieure du corps. Le segment "c" paroral, appelé « scuticovestige »[note 2], est aligné le long de la région postorale médio-ventrale. Leur macronoyau est globulaire à ellipsoïde. Micronoyau, vacuole contractile et cytoprocte sont présents. Ils sont bactérivores et histophages (se nourrissent des tissus de leur hôte)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Orchitophryidae ont une taille, petite (&lt; 80 µm) à moyenne (80 à 200 µm). Leur forme est ovoïde. Ils vivent en natation libre. Leur ciliation somatique est holotriche (c. à d. uniforme). Un cil caudal est souvent présent. Leur région buccale est située dans la moitié antérieure du corps. Le segment "c" paroral, appelé « scuticovestige »[note 2], est aligné le long de la région postorale médio-ventrale. Leur macronoyau est globulaire à ellipsoïde. Micronoyau, vacuole contractile et cytoprocte sont présents. Ils sont bactérivores et histophages (se nourrissent des tissus de leur hôte).
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Orchitophryidae vivent en milieu marin, particulièrement importants en tant que parasites facultatifs des crustacés, des étoiles de mer et des poissons[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Orchitophryidae vivent en milieu marin, particulièrement importants en tant que parasites facultatifs des crustacés, des étoiles de mer et des poissons.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (2 mars 2024)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (2 mars 2024) :
 Anophryoides de Puytorac &amp; Grolière, 1979
 Mesanophrys Small &amp; Lynn, 1985
 Metanophrys de Puytorac, Grolière, Roque &amp; Detcheva, 1974
@@ -642,9 +662,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Orchitophryidae Cépède, 1910[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Orchitophryidae Cépède, 1910.
 </t>
         </is>
       </c>
